--- a/Elements de rendu/Stats.xlsx
+++ b/Elements de rendu/Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daekc\OneDrive\Bureau\POO\POO_Ascenseur\Rendu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daekc\OneDrive\Bureau\POO\POO_Ascenseur\Elements de rendu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF02E1-3973-4634-BC5D-2A8C6BB5DC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD26020-AD2F-4705-BA74-2FD46D74DEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="3765" windowWidth="17805" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Stat!$A$2:$A$55</c:f>
+              <c:f>Stat!$A$2:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -471,16 +471,85 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Stat!$B$2:$B$55</c:f>
+              <c:f>Stat!$B$2:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -642,6 +711,75 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,10 +1228,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Stat!$A$2:$A$55</c:f>
+              <c:f>Stat!$A$2:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1255,16 +1393,85 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Stat!$C$2:$C$55</c:f>
+              <c:f>Stat!$C$2:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -1426,6 +1633,75 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,10 +2127,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Stat!$B$2:$B$55</c:f>
+              <c:f>Stat!$B$2:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -2016,16 +2292,85 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Stat!$C$2:$C$55</c:f>
+              <c:f>Stat!$C$2:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2187,6 +2532,75 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4261,8 +4675,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02A87B3D-C80E-4E04-9CBA-E5EA8040DC69}" name="Tableau2" displayName="Tableau2" ref="A1:C55" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C55" xr:uid="{62894713-3CE9-47CA-91BA-B66DB2365B21}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02A87B3D-C80E-4E04-9CBA-E5EA8040DC69}" name="Tableau2" displayName="Tableau2" ref="A1:C78" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C78" xr:uid="{62894713-3CE9-47CA-91BA-B66DB2365B21}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7F2AB834-677E-436B-B787-E5E752559CEE}" name="Nombre User" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B668C3D2-F7F5-4E61-9DD3-344B24C2F79D}" name="Iterations" dataDxfId="1"/>
@@ -4535,10 +4949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4610,7 +5024,7 @@
       </c>
       <c r="F4" s="2">
         <f>PEARSON(Tableau2[Nombre User],Tableau2[Iterations])</f>
-        <v>0.75480498973547161</v>
+        <v>0.97924255720741282</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4848,7 +5262,7 @@
       </c>
       <c r="F23" s="5">
         <f>PEARSON(Tableau2[Nombre User],Tableau2[Durée (ms)])</f>
-        <v>0.62070756501520774</v>
+        <v>0.88317547455858558</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,7 +5500,7 @@
       </c>
       <c r="F42" s="5">
         <f>PEARSON(Tableau2[Durée (ms)],Tableau2[Iterations])</f>
-        <v>0.55492827795771804</v>
+        <v>0.87281440878878114</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5244,6 +5658,259 @@
         <v>31</v>
       </c>
       <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>500</v>
+      </c>
+      <c r="B56" s="1">
+        <v>47</v>
+      </c>
+      <c r="C56" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>500</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>500</v>
+      </c>
+      <c r="B58" s="1">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>500</v>
+      </c>
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>500</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>500</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>500</v>
+      </c>
+      <c r="B62" s="1">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>500</v>
+      </c>
+      <c r="B63" s="1">
+        <v>49</v>
+      </c>
+      <c r="C63" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>500</v>
+      </c>
+      <c r="B64" s="1">
+        <v>57</v>
+      </c>
+      <c r="C64" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>500</v>
+      </c>
+      <c r="B65" s="1">
+        <v>49</v>
+      </c>
+      <c r="C65" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>500</v>
+      </c>
+      <c r="B66" s="1">
+        <v>51</v>
+      </c>
+      <c r="C66" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B67" s="1">
+        <v>98</v>
+      </c>
+      <c r="C67" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B68" s="1">
+        <v>79</v>
+      </c>
+      <c r="C68" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B69" s="1">
+        <v>88</v>
+      </c>
+      <c r="C69" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B70" s="1">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B71" s="1">
+        <v>90</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B72" s="1">
+        <v>79</v>
+      </c>
+      <c r="C72" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B73" s="1">
+        <v>82</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B74" s="1">
+        <v>104</v>
+      </c>
+      <c r="C74" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B75" s="1">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B76" s="1">
+        <v>100</v>
+      </c>
+      <c r="C76" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B77" s="1">
+        <v>95</v>
+      </c>
+      <c r="C77" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B78" s="1">
+        <v>85</v>
+      </c>
+      <c r="C78" s="1">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Elements de rendu/Stats.xlsx
+++ b/Elements de rendu/Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daekc\OneDrive\Bureau\POO\POO_Ascenseur\Elements de rendu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD26020-AD2F-4705-BA74-2FD46D74DEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F09680B-B2C9-41E6-87C4-08E2FC19E6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4952,7 +4952,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
